--- a/英语词库/词缀说文解字.xlsx
+++ b/英语词库/词缀说文解字.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16875" windowHeight="9930"/>
+    <workbookView windowWidth="23895" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,6 +85,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -92,14 +99,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -108,36 +168,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,14 +184,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,24 +197,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,14 +214,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -237,6 +237,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -244,180 +418,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +428,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -461,6 +485,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -476,30 +520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -508,26 +528,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -536,10 +536,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/英语词库/词缀说文解字.xlsx
+++ b/英语词库/词缀说文解字.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>记忆进度</t>
   </si>
@@ -28,10 +28,16 @@
     <t>记忆法</t>
   </si>
   <si>
-    <t>实际含义</t>
-  </si>
-  <si>
-    <t>其他解释</t>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
+    <t>例句</t>
+  </si>
+  <si>
+    <t>音标</t>
   </si>
   <si>
     <t>a-</t>
@@ -50,6 +56,12 @@
   </si>
   <si>
     <t>away from, off</t>
+  </si>
+  <si>
+    <t>trans-</t>
+  </si>
+  <si>
+    <t>表示"横过,越过"</t>
   </si>
 </sst>
 </file>
@@ -85,13 +97,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -99,91 +104,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,6 +179,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -222,7 +212,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,25 +249,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,139 +411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,6 +440,51 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,38 +506,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,30 +540,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -536,10 +548,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +560,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,20 +1033,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="6.43333333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="25.7083333333333" customWidth="1"/>
+    <col min="3" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="25.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1043,24 +1055,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="str">
-        <f ca="1">"基本掌握: "&amp;D1&amp;"; 完全不会:"&amp;F1&amp;" 模糊:"&amp;E1</f>
+        <f ca="1">"基本掌握: "&amp;E1&amp;"; 完全不会:"&amp;G1&amp;" 模糊:"&amp;F1</f>
         <v>基本掌握: 0; 完全不会:1 模糊:1</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="5"/>
+      <c r="E1" s="6">
         <f ca="1">COUNTIF(B:B,"&gt;=6")</f>
         <v>0</v>
       </c>
-      <c r="E1" s="6">
+      <c r="F1" s="6">
         <f ca="1">COUNTIF(B:B,"&lt;=4")</f>
         <v>1</v>
       </c>
-      <c r="F1" s="6">
+      <c r="G1" s="6">
         <f ca="1">COUNTIF(B:B,"&lt;2")</f>
         <v>1</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
+    <row r="2" s="2" customFormat="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1076,38 +1089,52 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
